--- a/biology/Botanique/Prima_Ballerina_(rose)/Prima_Ballerina_(rose).xlsx
+++ b/biology/Botanique/Prima_Ballerina_(rose)/Prima_Ballerina_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Prima Ballerina' est un cultivar de rosier obtenu en 1957 par le rosiériste allemand Mathias Tantau[1],[2]. Il est issu d'un croisement de semis non révélé × 'Madame Meilland' (Meilland, 1946)[3].
+'Prima Ballerina' est un cultivar de rosier obtenu en 1957 par le rosiériste allemand Mathias Tantau,. Il est issu d'un croisement de semis non révélé × 'Madame Meilland' (Meilland, 1946).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un  hybride de thé[4] aux grandes fleurs doubles (16-25 pétales) d'un rose profond très parfumées, fleurissant en solitaires ou à trois[5].
-Sa floraison s'étale toute la saison. Elle laisse place à des fruits rouges à l'automne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un  hybride de thé aux grandes fleurs doubles (16-25 pétales) d'un rose profond très parfumées, fleurissant en solitaires ou à trois.
+Sa floraison s'étale toute la saison. Elle laisse place à des fruits rouges à l'automne.
 Son buisson érigé, aux feuilles brillantes et aux rameaux épineux, s'élève de 90 cm à 130 cm pour une largeur de 60 cm environ.
-Sa zone de rusticité est de 6b à 9b ; ce rosier résiste bien au froid hivernal. Il est très résistant aux maladies[3].
+Sa zone de rusticité est de 6b à 9b ; ce rosier résiste bien au froid hivernal. Il est très résistant aux maladies.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Prima Ballerina' a donné naissance notamment à :
 'Anne Harkness' (Harkness, 1979) par croisement 'Bobby Dazzler' × [('Manx Queen' × 'Prima Ballerina') × ('Chanelle' × 'Piccadilly')] ;
@@ -554,7 +570,7 @@
 'Cleo' (Bees, 1981) par croisement 'Perfecta' × 'Prima Ballerina' ;
 'Electron' (McGredy, 1970) par croisement 'Paddy McGredy' × 'Prima Ballerina' ;
 'Nuage Parfumé' (Tantau, 1963) par croisement avec 'Montezuma' (grandiflora, Swim, 1955) ;
-'Sheila's Perfume' (Sheridan, 1982) par croisement 'Peer Gynt' × ('Daily Sketch' × ('Paddy McGredy' × 'Prima Ballerina'))[6].</t>
+'Sheila's Perfume' (Sheridan, 1982) par croisement 'Peer Gynt' × ('Daily Sketch' × ('Paddy McGredy' × 'Prima Ballerina')).</t>
         </is>
       </c>
     </row>
